--- a/correlations/Spearmans-matrix-plots/results/correlations and p values.xlsx
+++ b/correlations/Spearmans-matrix-plots/results/correlations and p values.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,32 +421,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>GSH</t>
+          <t>LiverGSH</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>GSSG</t>
+          <t>LiverGSSG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TotalGSH</t>
+          <t>LiverTotalGSH</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>GSHGSSGRatio</t>
+          <t>LiverGSHGSSGRatio</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>X2GSHGSSGRatio</t>
+          <t>Liver2GSHGSSGRatio</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>EhGSSG2GSH</t>
+          <t>LiverEhGSSG2GSH</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -462,6 +462,36 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Fibrosis</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyGSH</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyGSSG</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyTotalGSH</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyGSHGSSGRatio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Kidney2GSHGSSGRatio</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyEhGSSG2GSH</t>
         </is>
       </c>
     </row>
@@ -529,6 +559,24 @@
       <c r="U2">
         <v>-0.06838101415935076</v>
       </c>
+      <c r="V2">
+        <v>-0.1181687085653996</v>
+      </c>
+      <c r="W2">
+        <v>-0.2771448550667394</v>
+      </c>
+      <c r="X2">
+        <v>-0.1324637093641532</v>
+      </c>
+      <c r="Y2">
+        <v>0.1680536339309954</v>
+      </c>
+      <c r="Z2">
+        <v>0.1680536339309954</v>
+      </c>
+      <c r="AA2">
+        <v>-0.06301951976665464</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -594,6 +642,24 @@
       <c r="U3">
         <v>-0.01059630218009422</v>
       </c>
+      <c r="V3">
+        <v>-0.1892996112271965</v>
+      </c>
+      <c r="W3">
+        <v>-0.2187461902683344</v>
+      </c>
+      <c r="X3">
+        <v>-0.2020110719607479</v>
+      </c>
+      <c r="Y3">
+        <v>0.08139864176098649</v>
+      </c>
+      <c r="Z3">
+        <v>0.08139864176098649</v>
+      </c>
+      <c r="AA3">
+        <v>0.0264419051840784</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -659,6 +725,24 @@
       <c r="U4">
         <v>0.01606771290349964</v>
       </c>
+      <c r="V4">
+        <v>0.04226148072618076</v>
+      </c>
+      <c r="W4">
+        <v>-0.07029996862375995</v>
+      </c>
+      <c r="X4">
+        <v>0.03838342906513356</v>
+      </c>
+      <c r="Y4">
+        <v>0.09847556351966652</v>
+      </c>
+      <c r="Z4">
+        <v>0.09847556351966652</v>
+      </c>
+      <c r="AA4">
+        <v>-0.08774196438653738</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -724,6 +808,24 @@
       <c r="U5">
         <v>0.01392761009477732</v>
       </c>
+      <c r="V5">
+        <v>-0.0397860962070174</v>
+      </c>
+      <c r="W5">
+        <v>-0.2111219521136843</v>
+      </c>
+      <c r="X5">
+        <v>-0.05243152018113698</v>
+      </c>
+      <c r="Y5">
+        <v>0.154763938639522</v>
+      </c>
+      <c r="Z5">
+        <v>0.154763938639522</v>
+      </c>
+      <c r="AA5">
+        <v>-0.09034970479437232</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -789,6 +891,24 @@
       <c r="U6">
         <v>-0.01473572737557706</v>
       </c>
+      <c r="V6">
+        <v>0.06750339411734671</v>
+      </c>
+      <c r="W6">
+        <v>0.08854335663477864</v>
+      </c>
+      <c r="X6">
+        <v>0.07323224842622636</v>
+      </c>
+      <c r="Y6">
+        <v>-0.01922066169439302</v>
+      </c>
+      <c r="Z6">
+        <v>-0.01922066169439302</v>
+      </c>
+      <c r="AA6">
+        <v>-0.018390054358899</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -854,6 +974,24 @@
       <c r="U7">
         <v>-0.00880285042190441</v>
       </c>
+      <c r="V7">
+        <v>0.06927374631709612</v>
+      </c>
+      <c r="W7">
+        <v>0.02737608791203782</v>
+      </c>
+      <c r="X7">
+        <v>0.06903889481244591</v>
+      </c>
+      <c r="Y7">
+        <v>0.0443335947753453</v>
+      </c>
+      <c r="Z7">
+        <v>0.0443335947753453</v>
+      </c>
+      <c r="AA7">
+        <v>-0.06401118972575724</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -919,6 +1057,24 @@
       <c r="U8">
         <v>0.07567865317413842</v>
       </c>
+      <c r="V8">
+        <v>-0.06846451335152223</v>
+      </c>
+      <c r="W8">
+        <v>-0.1671257833581257</v>
+      </c>
+      <c r="X8">
+        <v>-0.07631181152358449</v>
+      </c>
+      <c r="Y8">
+        <v>0.07805462838597101</v>
+      </c>
+      <c r="Z8">
+        <v>0.07805462838597101</v>
+      </c>
+      <c r="AA8">
+        <v>-0.01577432429628833</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -984,6 +1140,24 @@
       <c r="U9">
         <v>-0.08824540352714537</v>
       </c>
+      <c r="V9">
+        <v>0.1467686506105377</v>
+      </c>
+      <c r="W9">
+        <v>-0.006067453999330248</v>
+      </c>
+      <c r="X9">
+        <v>0.1421817111530895</v>
+      </c>
+      <c r="Y9">
+        <v>0.117736319104785</v>
+      </c>
+      <c r="Z9">
+        <v>0.117736319104785</v>
+      </c>
+      <c r="AA9">
+        <v>-0.1522135001006884</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1049,6 +1223,24 @@
       <c r="U10">
         <v>0.01440404080408488</v>
       </c>
+      <c r="V10">
+        <v>-0.1332603475809576</v>
+      </c>
+      <c r="W10">
+        <v>0.1774144124061177</v>
+      </c>
+      <c r="X10">
+        <v>-0.1203583953800817</v>
+      </c>
+      <c r="Y10">
+        <v>-0.2707032050474481</v>
+      </c>
+      <c r="Z10">
+        <v>-0.2707032050474481</v>
+      </c>
+      <c r="AA10">
+        <v>0.2362388149773007</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1114,6 +1306,24 @@
       <c r="U11">
         <v>-0.0624180282881226</v>
       </c>
+      <c r="V11">
+        <v>0.08218151736399271</v>
+      </c>
+      <c r="W11">
+        <v>-0.1186538966501258</v>
+      </c>
+      <c r="X11">
+        <v>0.07328699902806664</v>
+      </c>
+      <c r="Y11">
+        <v>0.1636660621225781</v>
+      </c>
+      <c r="Z11">
+        <v>0.1636660621225781</v>
+      </c>
+      <c r="AA11">
+        <v>-0.1412384315609012</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1179,6 +1389,24 @@
       <c r="U12">
         <v>0.05894047700884117</v>
       </c>
+      <c r="V12">
+        <v>-0.110371927268117</v>
+      </c>
+      <c r="W12">
+        <v>0.2078067433367208</v>
+      </c>
+      <c r="X12">
+        <v>-0.09659604735171318</v>
+      </c>
+      <c r="Y12">
+        <v>-0.2723587088976928</v>
+      </c>
+      <c r="Z12">
+        <v>-0.2723587088976928</v>
+      </c>
+      <c r="AA12">
+        <v>0.2260595972930498</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1244,6 +1472,24 @@
       <c r="U13">
         <v>-0.07301370736297652</v>
       </c>
+      <c r="V13">
+        <v>-0.116773050378278</v>
+      </c>
+      <c r="W13">
+        <v>-0.2559739598720505</v>
+      </c>
+      <c r="X13">
+        <v>-0.1326239664634156</v>
+      </c>
+      <c r="Y13">
+        <v>0.1594575396486775</v>
+      </c>
+      <c r="Z13">
+        <v>0.1594575396486775</v>
+      </c>
+      <c r="AA13">
+        <v>-0.05654091399151325</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1309,6 +1555,24 @@
       <c r="U14">
         <v>-0.1271524294131706</v>
       </c>
+      <c r="V14">
+        <v>0.1567431085172669</v>
+      </c>
+      <c r="W14">
+        <v>-0.06296023984598252</v>
+      </c>
+      <c r="X14">
+        <v>0.1496255660978496</v>
+      </c>
+      <c r="Y14">
+        <v>0.2083878826516092</v>
+      </c>
+      <c r="Z14">
+        <v>0.2083878826516092</v>
+      </c>
+      <c r="AA14">
+        <v>-0.2082569642877472</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1374,6 +1638,24 @@
       <c r="U15">
         <v>-0.01672205934074941</v>
       </c>
+      <c r="V15">
+        <v>0.06145412251219048</v>
+      </c>
+      <c r="W15">
+        <v>-0.007685772510018027</v>
+      </c>
+      <c r="X15">
+        <v>0.05798970998004314</v>
+      </c>
+      <c r="Y15">
+        <v>0.0816142987302432</v>
+      </c>
+      <c r="Z15">
+        <v>0.0816142987302432</v>
+      </c>
+      <c r="AA15">
+        <v>-0.08091890559115746</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1439,6 +1721,24 @@
       <c r="U16">
         <v>-0.1241722943487994</v>
       </c>
+      <c r="V16">
+        <v>0.1551488438854649</v>
+      </c>
+      <c r="W16">
+        <v>-0.06197833162335458</v>
+      </c>
+      <c r="X16">
+        <v>0.1481181064732674</v>
+      </c>
+      <c r="Y16">
+        <v>0.2064089282529419</v>
+      </c>
+      <c r="Z16">
+        <v>0.2064089282529419</v>
+      </c>
+      <c r="AA16">
+        <v>-0.2063586480117485</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1504,6 +1804,24 @@
       <c r="U17">
         <v>-0.08973517804939907</v>
       </c>
+      <c r="V17">
+        <v>0.1422666543970753</v>
+      </c>
+      <c r="W17">
+        <v>-0.0614859544566455</v>
+      </c>
+      <c r="X17">
+        <v>0.1360190590710589</v>
+      </c>
+      <c r="Y17">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="Z17">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="AA17">
+        <v>-0.182901492469348</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1569,6 +1887,24 @@
       <c r="U18">
         <v>-0.08973517804939907</v>
       </c>
+      <c r="V18">
+        <v>0.1422666543970753</v>
+      </c>
+      <c r="W18">
+        <v>-0.0614859544566455</v>
+      </c>
+      <c r="X18">
+        <v>0.1360190590710589</v>
+      </c>
+      <c r="Y18">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="Z18">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="AA18">
+        <v>-0.182901492469348</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1634,6 +1970,24 @@
       <c r="U19">
         <v>0.128145807767961</v>
       </c>
+      <c r="V19">
+        <v>-0.1639379332525159</v>
+      </c>
+      <c r="W19">
+        <v>0.06241900444404123</v>
+      </c>
+      <c r="X19">
+        <v>-0.1568986555955586</v>
+      </c>
+      <c r="Y19">
+        <v>-0.2045295856528652</v>
+      </c>
+      <c r="Z19">
+        <v>-0.2045295856528652</v>
+      </c>
+      <c r="AA19">
+        <v>0.2104066817697127</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1699,6 +2053,24 @@
       <c r="U20">
         <v>0.03217145820998</v>
       </c>
+      <c r="V20">
+        <v>-0.004474877025971896</v>
+      </c>
+      <c r="W20">
+        <v>-0.01729733465864783</v>
+      </c>
+      <c r="X20">
+        <v>-0.008251662212731771</v>
+      </c>
+      <c r="Y20">
+        <v>0.03075747860478793</v>
+      </c>
+      <c r="Z20">
+        <v>0.03075747860478793</v>
+      </c>
+      <c r="AA20">
+        <v>-0.04607615503599031</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1764,6 +2136,24 @@
       <c r="U21">
         <v>-0.05584689559040065</v>
       </c>
+      <c r="V21">
+        <v>-0.09348708259403955</v>
+      </c>
+      <c r="W21">
+        <v>0.07058051493334061</v>
+      </c>
+      <c r="X21">
+        <v>-0.09253723055600223</v>
+      </c>
+      <c r="Y21">
+        <v>-0.1169658869888418</v>
+      </c>
+      <c r="Z21">
+        <v>-0.1169658869888418</v>
+      </c>
+      <c r="AA21">
+        <v>0.1161569296668747</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1827,6 +2217,522 @@
         <v>-0.05584689559040065</v>
       </c>
       <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0.02317885026785265</v>
+      </c>
+      <c r="W22">
+        <v>0.07069690178276136</v>
+      </c>
+      <c r="X22">
+        <v>0.02483447653981528</v>
+      </c>
+      <c r="Y22">
+        <v>-0.02880797228892147</v>
+      </c>
+      <c r="Z22">
+        <v>-0.02880797228892147</v>
+      </c>
+      <c r="AA22">
+        <v>-0.001324504473053861</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-0.1181687085653996</v>
+      </c>
+      <c r="B23">
+        <v>-0.1892996112271965</v>
+      </c>
+      <c r="C23">
+        <v>0.04226148072618076</v>
+      </c>
+      <c r="D23">
+        <v>-0.0397860962070174</v>
+      </c>
+      <c r="E23">
+        <v>0.06750339411734671</v>
+      </c>
+      <c r="F23">
+        <v>0.06927374631709612</v>
+      </c>
+      <c r="G23">
+        <v>-0.06846451335152223</v>
+      </c>
+      <c r="H23">
+        <v>0.1467686506105377</v>
+      </c>
+      <c r="I23">
+        <v>-0.1332603475809576</v>
+      </c>
+      <c r="J23">
+        <v>0.08218151736399271</v>
+      </c>
+      <c r="K23">
+        <v>-0.110371927268117</v>
+      </c>
+      <c r="L23">
+        <v>-0.116773050378278</v>
+      </c>
+      <c r="M23">
+        <v>0.1567431085172669</v>
+      </c>
+      <c r="N23">
+        <v>0.06145412251219048</v>
+      </c>
+      <c r="O23">
+        <v>0.1551488438854649</v>
+      </c>
+      <c r="P23">
+        <v>0.1422666543970753</v>
+      </c>
+      <c r="Q23">
+        <v>0.1422666543970753</v>
+      </c>
+      <c r="R23">
+        <v>-0.1639379332525159</v>
+      </c>
+      <c r="S23">
+        <v>-0.004474877025971896</v>
+      </c>
+      <c r="T23">
+        <v>-0.09348708259403955</v>
+      </c>
+      <c r="U23">
+        <v>0.02317885026785265</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0.2209328801494179</v>
+      </c>
+      <c r="X23">
+        <v>0.9981412881866893</v>
+      </c>
+      <c r="Y23">
+        <v>0.5535148293650762</v>
+      </c>
+      <c r="Z23">
+        <v>0.5535148293650762</v>
+      </c>
+      <c r="AA23">
+        <v>-0.8347585739754878</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-0.2771448550667394</v>
+      </c>
+      <c r="B24">
+        <v>-0.2187461902683344</v>
+      </c>
+      <c r="C24">
+        <v>-0.07029996862375995</v>
+      </c>
+      <c r="D24">
+        <v>-0.2111219521136843</v>
+      </c>
+      <c r="E24">
+        <v>0.08854335663477864</v>
+      </c>
+      <c r="F24">
+        <v>0.02737608791203782</v>
+      </c>
+      <c r="G24">
+        <v>-0.1671257833581257</v>
+      </c>
+      <c r="H24">
+        <v>-0.006067453999330248</v>
+      </c>
+      <c r="I24">
+        <v>0.1774144124061177</v>
+      </c>
+      <c r="J24">
+        <v>-0.1186538966501258</v>
+      </c>
+      <c r="K24">
+        <v>0.2078067433367208</v>
+      </c>
+      <c r="L24">
+        <v>-0.2559739598720505</v>
+      </c>
+      <c r="M24">
+        <v>-0.06296023984598252</v>
+      </c>
+      <c r="N24">
+        <v>-0.007685772510018027</v>
+      </c>
+      <c r="O24">
+        <v>-0.06197833162335458</v>
+      </c>
+      <c r="P24">
+        <v>-0.0614859544566455</v>
+      </c>
+      <c r="Q24">
+        <v>-0.0614859544566455</v>
+      </c>
+      <c r="R24">
+        <v>0.06241900444404123</v>
+      </c>
+      <c r="S24">
+        <v>-0.01729733465864783</v>
+      </c>
+      <c r="T24">
+        <v>0.07058051493334061</v>
+      </c>
+      <c r="U24">
+        <v>0.07069690178276136</v>
+      </c>
+      <c r="V24">
+        <v>0.2209328801494179</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0.2656969644612175</v>
+      </c>
+      <c r="Y24">
+        <v>-0.6405281434317041</v>
+      </c>
+      <c r="Z24">
+        <v>-0.6405281434317041</v>
+      </c>
+      <c r="AA24">
+        <v>0.3051742294819734</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-0.1324637093641532</v>
+      </c>
+      <c r="B25">
+        <v>-0.2020110719607479</v>
+      </c>
+      <c r="C25">
+        <v>0.03838342906513356</v>
+      </c>
+      <c r="D25">
+        <v>-0.05243152018113698</v>
+      </c>
+      <c r="E25">
+        <v>0.07323224842622636</v>
+      </c>
+      <c r="F25">
+        <v>0.06903889481244591</v>
+      </c>
+      <c r="G25">
+        <v>-0.07631181152358449</v>
+      </c>
+      <c r="H25">
+        <v>0.1421817111530895</v>
+      </c>
+      <c r="I25">
+        <v>-0.1203583953800817</v>
+      </c>
+      <c r="J25">
+        <v>0.07328699902806664</v>
+      </c>
+      <c r="K25">
+        <v>-0.09659604735171318</v>
+      </c>
+      <c r="L25">
+        <v>-0.1326239664634156</v>
+      </c>
+      <c r="M25">
+        <v>0.1496255660978496</v>
+      </c>
+      <c r="N25">
+        <v>0.05798970998004314</v>
+      </c>
+      <c r="O25">
+        <v>0.1481181064732674</v>
+      </c>
+      <c r="P25">
+        <v>0.1360190590710589</v>
+      </c>
+      <c r="Q25">
+        <v>0.1360190590710589</v>
+      </c>
+      <c r="R25">
+        <v>-0.1568986555955586</v>
+      </c>
+      <c r="S25">
+        <v>-0.008251662212731771</v>
+      </c>
+      <c r="T25">
+        <v>-0.09253723055600223</v>
+      </c>
+      <c r="U25">
+        <v>0.02483447653981528</v>
+      </c>
+      <c r="V25">
+        <v>0.9981412881866893</v>
+      </c>
+      <c r="W25">
+        <v>0.2656969644612175</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0.5128716323184893</v>
+      </c>
+      <c r="Z25">
+        <v>0.5128716323184893</v>
+      </c>
+      <c r="AA25">
+        <v>-0.8067095709220764</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.1680536339309954</v>
+      </c>
+      <c r="B26">
+        <v>0.08139864176098649</v>
+      </c>
+      <c r="C26">
+        <v>0.09847556351966652</v>
+      </c>
+      <c r="D26">
+        <v>0.154763938639522</v>
+      </c>
+      <c r="E26">
+        <v>-0.01922066169439302</v>
+      </c>
+      <c r="F26">
+        <v>0.0443335947753453</v>
+      </c>
+      <c r="G26">
+        <v>0.07805462838597101</v>
+      </c>
+      <c r="H26">
+        <v>0.117736319104785</v>
+      </c>
+      <c r="I26">
+        <v>-0.2707032050474481</v>
+      </c>
+      <c r="J26">
+        <v>0.1636660621225781</v>
+      </c>
+      <c r="K26">
+        <v>-0.2723587088976928</v>
+      </c>
+      <c r="L26">
+        <v>0.1594575396486775</v>
+      </c>
+      <c r="M26">
+        <v>0.2083878826516092</v>
+      </c>
+      <c r="N26">
+        <v>0.0816142987302432</v>
+      </c>
+      <c r="O26">
+        <v>0.2064089282529419</v>
+      </c>
+      <c r="P26">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="Q26">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="R26">
+        <v>-0.2045295856528652</v>
+      </c>
+      <c r="S26">
+        <v>0.03075747860478793</v>
+      </c>
+      <c r="T26">
+        <v>-0.1169658869888418</v>
+      </c>
+      <c r="U26">
+        <v>-0.02880797228892147</v>
+      </c>
+      <c r="V26">
+        <v>0.5535148293650762</v>
+      </c>
+      <c r="W26">
+        <v>-0.6405281434317041</v>
+      </c>
+      <c r="X26">
+        <v>0.5128716323184893</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>-0.9131053076961023</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.1680536339309954</v>
+      </c>
+      <c r="B27">
+        <v>0.08139864176098649</v>
+      </c>
+      <c r="C27">
+        <v>0.09847556351966652</v>
+      </c>
+      <c r="D27">
+        <v>0.154763938639522</v>
+      </c>
+      <c r="E27">
+        <v>-0.01922066169439302</v>
+      </c>
+      <c r="F27">
+        <v>0.0443335947753453</v>
+      </c>
+      <c r="G27">
+        <v>0.07805462838597101</v>
+      </c>
+      <c r="H27">
+        <v>0.117736319104785</v>
+      </c>
+      <c r="I27">
+        <v>-0.2707032050474481</v>
+      </c>
+      <c r="J27">
+        <v>0.1636660621225781</v>
+      </c>
+      <c r="K27">
+        <v>-0.2723587088976928</v>
+      </c>
+      <c r="L27">
+        <v>0.1594575396486775</v>
+      </c>
+      <c r="M27">
+        <v>0.2083878826516092</v>
+      </c>
+      <c r="N27">
+        <v>0.0816142987302432</v>
+      </c>
+      <c r="O27">
+        <v>0.2064089282529419</v>
+      </c>
+      <c r="P27">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="Q27">
+        <v>0.1761250441137965</v>
+      </c>
+      <c r="R27">
+        <v>-0.2045295856528652</v>
+      </c>
+      <c r="S27">
+        <v>0.03075747860478793</v>
+      </c>
+      <c r="T27">
+        <v>-0.1169658869888418</v>
+      </c>
+      <c r="U27">
+        <v>-0.02880797228892147</v>
+      </c>
+      <c r="V27">
+        <v>0.5535148293650762</v>
+      </c>
+      <c r="W27">
+        <v>-0.6405281434317041</v>
+      </c>
+      <c r="X27">
+        <v>0.5128716323184893</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>-0.9131053076961023</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>-0.06301951976665464</v>
+      </c>
+      <c r="B28">
+        <v>0.0264419051840784</v>
+      </c>
+      <c r="C28">
+        <v>-0.08774196438653738</v>
+      </c>
+      <c r="D28">
+        <v>-0.09034970479437232</v>
+      </c>
+      <c r="E28">
+        <v>-0.018390054358899</v>
+      </c>
+      <c r="F28">
+        <v>-0.06401118972575724</v>
+      </c>
+      <c r="G28">
+        <v>-0.01577432429628833</v>
+      </c>
+      <c r="H28">
+        <v>-0.1522135001006884</v>
+      </c>
+      <c r="I28">
+        <v>0.2362388149773007</v>
+      </c>
+      <c r="J28">
+        <v>-0.1412384315609012</v>
+      </c>
+      <c r="K28">
+        <v>0.2260595972930498</v>
+      </c>
+      <c r="L28">
+        <v>-0.05654091399151325</v>
+      </c>
+      <c r="M28">
+        <v>-0.2082569642877472</v>
+      </c>
+      <c r="N28">
+        <v>-0.08091890559115746</v>
+      </c>
+      <c r="O28">
+        <v>-0.2063586480117485</v>
+      </c>
+      <c r="P28">
+        <v>-0.182901492469348</v>
+      </c>
+      <c r="Q28">
+        <v>-0.182901492469348</v>
+      </c>
+      <c r="R28">
+        <v>0.2104066817697127</v>
+      </c>
+      <c r="S28">
+        <v>-0.04607615503599031</v>
+      </c>
+      <c r="T28">
+        <v>0.1161569296668747</v>
+      </c>
+      <c r="U28">
+        <v>-0.001324504473053861</v>
+      </c>
+      <c r="V28">
+        <v>-0.8347585739754878</v>
+      </c>
+      <c r="W28">
+        <v>0.3051742294819734</v>
+      </c>
+      <c r="X28">
+        <v>-0.8067095709220764</v>
+      </c>
+      <c r="Y28">
+        <v>-0.9131053076961023</v>
+      </c>
+      <c r="Z28">
+        <v>-0.9131053076961023</v>
+      </c>
+      <c r="AA28">
         <v>1</v>
       </c>
     </row>
@@ -1837,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1906,32 +2812,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>GSH</t>
+          <t>LiverGSH</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>GSSG</t>
+          <t>LiverGSSG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TotalGSH</t>
+          <t>LiverTotalGSH</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>GSHGSSGRatio</t>
+          <t>LiverGSHGSSGRatio</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>X2GSHGSSGRatio</t>
+          <t>Liver2GSHGSSGRatio</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>EhGSSG2GSH</t>
+          <t>LiverEhGSSG2GSH</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -1947,6 +2853,36 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Fibrosis</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyGSH</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyGSSG</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyTotalGSH</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyGSHGSSGRatio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Kidney2GSHGSSGRatio</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>KidneyEhGSSG2GSH</t>
         </is>
       </c>
     </row>
@@ -2011,6 +2947,24 @@
       <c r="U2">
         <v>0.110538991734245</v>
       </c>
+      <c r="V2">
+        <v>0.1292902145358792</v>
+      </c>
+      <c r="W2">
+        <v>1.969940717727603e-05</v>
+      </c>
+      <c r="X2">
+        <v>0.08308686912077734</v>
+      </c>
+      <c r="Y2">
+        <v>0.006089956448722456</v>
+      </c>
+      <c r="Z2">
+        <v>0.006089956448722456</v>
+      </c>
+      <c r="AA2">
+        <v>0.2249357343536751</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -2073,6 +3027,24 @@
       <c r="U3">
         <v>0.523515443532474</v>
       </c>
+      <c r="V3">
+        <v>0.003035418197689932</v>
+      </c>
+      <c r="W3">
+        <v>0.0002022307493865227</v>
+      </c>
+      <c r="X3">
+        <v>0.001523412274941904</v>
+      </c>
+      <c r="Y3">
+        <v>0.08241619841297587</v>
+      </c>
+      <c r="Z3">
+        <v>0.08241619841297587</v>
+      </c>
+      <c r="AA3">
+        <v>0.9150742595879411</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -2135,6 +3107,24 @@
       <c r="U4">
         <v>0.9467885781750613</v>
       </c>
+      <c r="V4">
+        <v>0.1575784139997523</v>
+      </c>
+      <c r="W4">
+        <v>0.1645474737013033</v>
+      </c>
+      <c r="X4">
+        <v>0.1804278578538032</v>
+      </c>
+      <c r="Y4">
+        <v>0.0187461578160133</v>
+      </c>
+      <c r="Z4">
+        <v>0.0187461578160133</v>
+      </c>
+      <c r="AA4">
+        <v>0.01987730691097611</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -2197,6 +3187,24 @@
       <c r="U5">
         <v>0.6886196756594791</v>
       </c>
+      <c r="V5">
+        <v>0.7842695891347067</v>
+      </c>
+      <c r="W5">
+        <v>0.000443976650610578</v>
+      </c>
+      <c r="X5">
+        <v>0.6427619911782965</v>
+      </c>
+      <c r="Y5">
+        <v>0.002337754357119248</v>
+      </c>
+      <c r="Z5">
+        <v>0.002337754357119248</v>
+      </c>
+      <c r="AA5">
+        <v>0.04374825080269451</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -2259,6 +3267,24 @@
       <c r="U6">
         <v>0.677514161159356</v>
       </c>
+      <c r="V6">
+        <v>0.1091206331934611</v>
+      </c>
+      <c r="W6">
+        <v>0.1939398161897692</v>
+      </c>
+      <c r="X6">
+        <v>0.09742837143327998</v>
+      </c>
+      <c r="Y6">
+        <v>0.90776054857611</v>
+      </c>
+      <c r="Z6">
+        <v>0.90776054857611</v>
+      </c>
+      <c r="AA6">
+        <v>0.5052951132541779</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -2321,6 +3347,24 @@
       <c r="U7">
         <v>0.9228371561727764</v>
       </c>
+      <c r="V7">
+        <v>0.1928576955842833</v>
+      </c>
+      <c r="W7">
+        <v>0.9511377050613485</v>
+      </c>
+      <c r="X7">
+        <v>0.2203173328667833</v>
+      </c>
+      <c r="Y7">
+        <v>0.2779956458006172</v>
+      </c>
+      <c r="Z7">
+        <v>0.2779956458006172</v>
+      </c>
+      <c r="AA7">
+        <v>0.14763112929181</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -2383,6 +3427,24 @@
       <c r="U8">
         <v>0.7917085772705013</v>
       </c>
+      <c r="V8">
+        <v>0.318401430374897</v>
+      </c>
+      <c r="W8">
+        <v>0.001302704843999747</v>
+      </c>
+      <c r="X8">
+        <v>0.2493176011176246</v>
+      </c>
+      <c r="Y8">
+        <v>0.02463491332367562</v>
+      </c>
+      <c r="Z8">
+        <v>0.02463491332367562</v>
+      </c>
+      <c r="AA8">
+        <v>0.3520578542478403</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -2445,6 +3507,24 @@
       <c r="U9">
         <v>0.5029283547134034</v>
       </c>
+      <c r="V9">
+        <v>0.3854323018220818</v>
+      </c>
+      <c r="W9">
+        <v>0.03831870126194303</v>
+      </c>
+      <c r="X9">
+        <v>0.4770743119117777</v>
+      </c>
+      <c r="Y9">
+        <v>0.005758354268619925</v>
+      </c>
+      <c r="Z9">
+        <v>0.005758354268619925</v>
+      </c>
+      <c r="AA9">
+        <v>0.01349175128204472</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -2507,6 +3587,24 @@
       <c r="U10">
         <v>0.04268893261378692</v>
       </c>
+      <c r="V10">
+        <v>8.555287216438501e-07</v>
+      </c>
+      <c r="W10">
+        <v>0.4319144607158965</v>
+      </c>
+      <c r="X10">
+        <v>1.766646417600271e-06</v>
+      </c>
+      <c r="Y10">
+        <v>2.013805749712105e-06</v>
+      </c>
+      <c r="Z10">
+        <v>2.013805749712105e-06</v>
+      </c>
+      <c r="AA10">
+        <v>8.232086567971919e-09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -2569,6 +3667,24 @@
       <c r="U11">
         <v>0.9152838812135295</v>
       </c>
+      <c r="V11">
+        <v>0.000613822501299488</v>
+      </c>
+      <c r="W11">
+        <v>0.03851646040148182</v>
+      </c>
+      <c r="X11">
+        <v>0.001278985204954397</v>
+      </c>
+      <c r="Y11">
+        <v>2.156992431334714e-06</v>
+      </c>
+      <c r="Z11">
+        <v>2.156992431334714e-06</v>
+      </c>
+      <c r="AA11">
+        <v>4.486656544067102e-07</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -2631,6 +3747,24 @@
       <c r="U12">
         <v>0.1229000515273513</v>
       </c>
+      <c r="V12">
+        <v>9.409946709704187e-05</v>
+      </c>
+      <c r="W12">
+        <v>0.04120050339947312</v>
+      </c>
+      <c r="X12">
+        <v>0.0002355332602399507</v>
+      </c>
+      <c r="Y12">
+        <v>1.082147822462076e-07</v>
+      </c>
+      <c r="Z12">
+        <v>1.082147822462076e-07</v>
+      </c>
+      <c r="AA12">
+        <v>1.237646607421539e-08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2693,6 +3827,24 @@
       <c r="U13">
         <v>0.305423509402146</v>
       </c>
+      <c r="V13">
+        <v>0.01233453583054533</v>
+      </c>
+      <c r="W13">
+        <v>1.15649769663051e-05</v>
+      </c>
+      <c r="X13">
+        <v>0.006992697764747424</v>
+      </c>
+      <c r="Y13">
+        <v>0.006487576749523161</v>
+      </c>
+      <c r="Z13">
+        <v>0.006487576749523161</v>
+      </c>
+      <c r="AA13">
+        <v>0.4962203167169945</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2755,6 +3907,24 @@
       <c r="U14">
         <v>0.03701278315917955</v>
       </c>
+      <c r="V14">
+        <v>0.0002036801096787499</v>
+      </c>
+      <c r="W14">
+        <v>0.2770599277398187</v>
+      </c>
+      <c r="X14">
+        <v>0.0003243443882876562</v>
+      </c>
+      <c r="Y14">
+        <v>4.362680241198902e-05</v>
+      </c>
+      <c r="Z14">
+        <v>4.362680241198902e-05</v>
+      </c>
+      <c r="AA14">
+        <v>3.796236321740309e-06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2817,6 +3987,24 @@
       <c r="U15">
         <v>0.194849353529301</v>
       </c>
+      <c r="V15">
+        <v>0.003489175734747718</v>
+      </c>
+      <c r="W15">
+        <v>0.7906353154103223</v>
+      </c>
+      <c r="X15">
+        <v>0.004041031431565978</v>
+      </c>
+      <c r="Y15">
+        <v>0.03676623639974852</v>
+      </c>
+      <c r="Z15">
+        <v>0.03676623639974852</v>
+      </c>
+      <c r="AA15">
+        <v>0.006132378366797031</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2879,6 +4067,24 @@
       <c r="U16">
         <v>0.03723977548783219</v>
       </c>
+      <c r="V16">
+        <v>0.0001988700881763172</v>
+      </c>
+      <c r="W16">
+        <v>0.30015989643121</v>
+      </c>
+      <c r="X16">
+        <v>0.0003130254749963424</v>
+      </c>
+      <c r="Y16">
+        <v>5.412756078193581e-05</v>
+      </c>
+      <c r="Z16">
+        <v>5.412756078193581e-05</v>
+      </c>
+      <c r="AA16">
+        <v>4.500966554354946e-06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2941,6 +4147,24 @@
       <c r="U17">
         <v>0.5097112664527845</v>
       </c>
+      <c r="V17">
+        <v>0.6814330276730149</v>
+      </c>
+      <c r="W17">
+        <v>0.01959895184396854</v>
+      </c>
+      <c r="X17">
+        <v>0.7859970855522911</v>
+      </c>
+      <c r="Y17">
+        <v>0.005382345370300579</v>
+      </c>
+      <c r="Z17">
+        <v>0.005382345370300579</v>
+      </c>
+      <c r="AA17">
+        <v>0.02126177494570669</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -3003,6 +4227,24 @@
       <c r="U18">
         <v>0.5097112971289524</v>
       </c>
+      <c r="V18">
+        <v>0.6816269054702992</v>
+      </c>
+      <c r="W18">
+        <v>0.01959592947351374</v>
+      </c>
+      <c r="X18">
+        <v>0.7862087008121257</v>
+      </c>
+      <c r="Y18">
+        <v>0.005385291300507689</v>
+      </c>
+      <c r="Z18">
+        <v>0.005385291300507689</v>
+      </c>
+      <c r="AA18">
+        <v>0.02127495813264479</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -3065,6 +4307,24 @@
       <c r="U19">
         <v>0.09558903180005984</v>
       </c>
+      <c r="V19">
+        <v>0.004297022346441359</v>
+      </c>
+      <c r="W19">
+        <v>0.05255538505869328</v>
+      </c>
+      <c r="X19">
+        <v>0.007225046600035867</v>
+      </c>
+      <c r="Y19">
+        <v>2.23814495068364e-05</v>
+      </c>
+      <c r="Z19">
+        <v>2.23814495068364e-05</v>
+      </c>
+      <c r="AA19">
+        <v>8.363833852165214e-06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3127,6 +4387,24 @@
       <c r="U20">
         <v>0.9011406298846167</v>
       </c>
+      <c r="V20">
+        <v>0.8012012990220008</v>
+      </c>
+      <c r="W20">
+        <v>0.2724286657801158</v>
+      </c>
+      <c r="X20">
+        <v>0.8112754308542252</v>
+      </c>
+      <c r="Y20">
+        <v>0.7809898419213468</v>
+      </c>
+      <c r="Z20">
+        <v>0.7809898419213468</v>
+      </c>
+      <c r="AA20">
+        <v>0.800875815004745</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -3189,6 +4467,24 @@
       <c r="U21">
         <v>0.425368523968054</v>
       </c>
+      <c r="V21">
+        <v>0.0006208346701812584</v>
+      </c>
+      <c r="W21">
+        <v>0.6977059786126887</v>
+      </c>
+      <c r="X21">
+        <v>0.00080018966353812</v>
+      </c>
+      <c r="Y21">
+        <v>0.06751197078756266</v>
+      </c>
+      <c r="Z21">
+        <v>0.06751197078756266</v>
+      </c>
+      <c r="AA21">
+        <v>0.003312950363056899</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3250,6 +4546,504 @@
       </c>
       <c r="T22">
         <v>0.425368523968054</v>
+      </c>
+      <c r="V22">
+        <v>0.9124603842909949</v>
+      </c>
+      <c r="W22">
+        <v>0.4531724772561696</v>
+      </c>
+      <c r="X22">
+        <v>0.8679569314964741</v>
+      </c>
+      <c r="Y22">
+        <v>0.5638677502343075</v>
+      </c>
+      <c r="Z22">
+        <v>0.5638677502343075</v>
+      </c>
+      <c r="AA22">
+        <v>0.7728532595654056</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.1292902145358792</v>
+      </c>
+      <c r="B23">
+        <v>0.003035418197689932</v>
+      </c>
+      <c r="C23">
+        <v>0.1575784139997523</v>
+      </c>
+      <c r="D23">
+        <v>0.7842695891347067</v>
+      </c>
+      <c r="E23">
+        <v>0.1091206331934611</v>
+      </c>
+      <c r="F23">
+        <v>0.1928576955842833</v>
+      </c>
+      <c r="G23">
+        <v>0.318401430374897</v>
+      </c>
+      <c r="H23">
+        <v>0.3854323018220818</v>
+      </c>
+      <c r="I23">
+        <v>8.555287216438501e-07</v>
+      </c>
+      <c r="J23">
+        <v>0.000613822501299488</v>
+      </c>
+      <c r="K23">
+        <v>9.409946709704187e-05</v>
+      </c>
+      <c r="L23">
+        <v>0.01233453583054533</v>
+      </c>
+      <c r="M23">
+        <v>0.0002036801096787499</v>
+      </c>
+      <c r="N23">
+        <v>0.003489175734747718</v>
+      </c>
+      <c r="O23">
+        <v>0.0001988700881763172</v>
+      </c>
+      <c r="P23">
+        <v>0.6814330276730149</v>
+      </c>
+      <c r="Q23">
+        <v>0.6816269054702992</v>
+      </c>
+      <c r="R23">
+        <v>0.004297022346441359</v>
+      </c>
+      <c r="S23">
+        <v>0.8012012990220008</v>
+      </c>
+      <c r="T23">
+        <v>0.0006208346701812584</v>
+      </c>
+      <c r="U23">
+        <v>0.9124603842909949</v>
+      </c>
+      <c r="W23">
+        <v>1.659827830735594e-11</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>8.881784197001252e-15</v>
+      </c>
+      <c r="Z23">
+        <v>8.881784197001252e-15</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1.969940717727603e-05</v>
+      </c>
+      <c r="B24">
+        <v>0.0002022307493865227</v>
+      </c>
+      <c r="C24">
+        <v>0.1645474737013033</v>
+      </c>
+      <c r="D24">
+        <v>0.000443976650610578</v>
+      </c>
+      <c r="E24">
+        <v>0.1939398161897692</v>
+      </c>
+      <c r="F24">
+        <v>0.9511377050613485</v>
+      </c>
+      <c r="G24">
+        <v>0.001302704843999747</v>
+      </c>
+      <c r="H24">
+        <v>0.03831870126194303</v>
+      </c>
+      <c r="I24">
+        <v>0.4319144607158965</v>
+      </c>
+      <c r="J24">
+        <v>0.03851646040148182</v>
+      </c>
+      <c r="K24">
+        <v>0.04120050339947312</v>
+      </c>
+      <c r="L24">
+        <v>1.15649769663051e-05</v>
+      </c>
+      <c r="M24">
+        <v>0.2770599277398187</v>
+      </c>
+      <c r="N24">
+        <v>0.7906353154103223</v>
+      </c>
+      <c r="O24">
+        <v>0.30015989643121</v>
+      </c>
+      <c r="P24">
+        <v>0.01959895184396854</v>
+      </c>
+      <c r="Q24">
+        <v>0.01959592947351374</v>
+      </c>
+      <c r="R24">
+        <v>0.05255538505869328</v>
+      </c>
+      <c r="S24">
+        <v>0.2724286657801158</v>
+      </c>
+      <c r="T24">
+        <v>0.6977059786126887</v>
+      </c>
+      <c r="U24">
+        <v>0.4531724772561696</v>
+      </c>
+      <c r="V24">
+        <v>1.659827830735594e-11</v>
+      </c>
+      <c r="X24">
+        <v>2.797762022055394e-14</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>7.579539320623496e-07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.08308686912077734</v>
+      </c>
+      <c r="B25">
+        <v>0.001523412274941904</v>
+      </c>
+      <c r="C25">
+        <v>0.1804278578538032</v>
+      </c>
+      <c r="D25">
+        <v>0.6427619911782965</v>
+      </c>
+      <c r="E25">
+        <v>0.09742837143327998</v>
+      </c>
+      <c r="F25">
+        <v>0.2203173328667833</v>
+      </c>
+      <c r="G25">
+        <v>0.2493176011176246</v>
+      </c>
+      <c r="H25">
+        <v>0.4770743119117777</v>
+      </c>
+      <c r="I25">
+        <v>1.766646417600271e-06</v>
+      </c>
+      <c r="J25">
+        <v>0.001278985204954397</v>
+      </c>
+      <c r="K25">
+        <v>0.0002355332602399507</v>
+      </c>
+      <c r="L25">
+        <v>0.006992697764747424</v>
+      </c>
+      <c r="M25">
+        <v>0.0003243443882876562</v>
+      </c>
+      <c r="N25">
+        <v>0.004041031431565978</v>
+      </c>
+      <c r="O25">
+        <v>0.0003130254749963424</v>
+      </c>
+      <c r="P25">
+        <v>0.7859970855522911</v>
+      </c>
+      <c r="Q25">
+        <v>0.7862087008121257</v>
+      </c>
+      <c r="R25">
+        <v>0.007225046600035867</v>
+      </c>
+      <c r="S25">
+        <v>0.8112754308542252</v>
+      </c>
+      <c r="T25">
+        <v>0.00080018966353812</v>
+      </c>
+      <c r="U25">
+        <v>0.8679569314964741</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>2.797762022055394e-14</v>
+      </c>
+      <c r="Y25">
+        <v>5.221156840207186e-12</v>
+      </c>
+      <c r="Z25">
+        <v>5.221156840207186e-12</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.006089956448722456</v>
+      </c>
+      <c r="B26">
+        <v>0.08241619841297587</v>
+      </c>
+      <c r="C26">
+        <v>0.0187461578160133</v>
+      </c>
+      <c r="D26">
+        <v>0.002337754357119248</v>
+      </c>
+      <c r="E26">
+        <v>0.90776054857611</v>
+      </c>
+      <c r="F26">
+        <v>0.2779956458006172</v>
+      </c>
+      <c r="G26">
+        <v>0.02463491332367562</v>
+      </c>
+      <c r="H26">
+        <v>0.005758354268619925</v>
+      </c>
+      <c r="I26">
+        <v>2.013805749712105e-06</v>
+      </c>
+      <c r="J26">
+        <v>2.156992431334714e-06</v>
+      </c>
+      <c r="K26">
+        <v>1.082147822462076e-07</v>
+      </c>
+      <c r="L26">
+        <v>0.006487576749523161</v>
+      </c>
+      <c r="M26">
+        <v>4.362680241198902e-05</v>
+      </c>
+      <c r="N26">
+        <v>0.03676623639974852</v>
+      </c>
+      <c r="O26">
+        <v>5.412756078193581e-05</v>
+      </c>
+      <c r="P26">
+        <v>0.005382345370300579</v>
+      </c>
+      <c r="Q26">
+        <v>0.005385291300507689</v>
+      </c>
+      <c r="R26">
+        <v>2.23814495068364e-05</v>
+      </c>
+      <c r="S26">
+        <v>0.7809898419213468</v>
+      </c>
+      <c r="T26">
+        <v>0.06751197078756266</v>
+      </c>
+      <c r="U26">
+        <v>0.5638677502343075</v>
+      </c>
+      <c r="V26">
+        <v>8.881784197001252e-15</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>5.221156840207186e-12</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.006089956448722456</v>
+      </c>
+      <c r="B27">
+        <v>0.08241619841297587</v>
+      </c>
+      <c r="C27">
+        <v>0.0187461578160133</v>
+      </c>
+      <c r="D27">
+        <v>0.002337754357119248</v>
+      </c>
+      <c r="E27">
+        <v>0.90776054857611</v>
+      </c>
+      <c r="F27">
+        <v>0.2779956458006172</v>
+      </c>
+      <c r="G27">
+        <v>0.02463491332367562</v>
+      </c>
+      <c r="H27">
+        <v>0.005758354268619925</v>
+      </c>
+      <c r="I27">
+        <v>2.013805749712105e-06</v>
+      </c>
+      <c r="J27">
+        <v>2.156992431334714e-06</v>
+      </c>
+      <c r="K27">
+        <v>1.082147822462076e-07</v>
+      </c>
+      <c r="L27">
+        <v>0.006487576749523161</v>
+      </c>
+      <c r="M27">
+        <v>4.362680241198902e-05</v>
+      </c>
+      <c r="N27">
+        <v>0.03676623639974852</v>
+      </c>
+      <c r="O27">
+        <v>5.412756078193581e-05</v>
+      </c>
+      <c r="P27">
+        <v>0.005382345370300579</v>
+      </c>
+      <c r="Q27">
+        <v>0.005385291300507689</v>
+      </c>
+      <c r="R27">
+        <v>2.23814495068364e-05</v>
+      </c>
+      <c r="S27">
+        <v>0.7809898419213468</v>
+      </c>
+      <c r="T27">
+        <v>0.06751197078756266</v>
+      </c>
+      <c r="U27">
+        <v>0.5638677502343075</v>
+      </c>
+      <c r="V27">
+        <v>8.881784197001252e-15</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>5.221156840207186e-12</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.2249357343536751</v>
+      </c>
+      <c r="B28">
+        <v>0.9150742595879411</v>
+      </c>
+      <c r="C28">
+        <v>0.01987730691097611</v>
+      </c>
+      <c r="D28">
+        <v>0.04374825080269451</v>
+      </c>
+      <c r="E28">
+        <v>0.5052951132541779</v>
+      </c>
+      <c r="F28">
+        <v>0.14763112929181</v>
+      </c>
+      <c r="G28">
+        <v>0.3520578542478403</v>
+      </c>
+      <c r="H28">
+        <v>0.01349175128204472</v>
+      </c>
+      <c r="I28">
+        <v>8.232086567971919e-09</v>
+      </c>
+      <c r="J28">
+        <v>4.486656544067102e-07</v>
+      </c>
+      <c r="K28">
+        <v>1.237646607421539e-08</v>
+      </c>
+      <c r="L28">
+        <v>0.4962203167169945</v>
+      </c>
+      <c r="M28">
+        <v>3.796236321740309e-06</v>
+      </c>
+      <c r="N28">
+        <v>0.006132378366797031</v>
+      </c>
+      <c r="O28">
+        <v>4.500966554354946e-06</v>
+      </c>
+      <c r="P28">
+        <v>0.02126177494570669</v>
+      </c>
+      <c r="Q28">
+        <v>0.02127495813264479</v>
+      </c>
+      <c r="R28">
+        <v>8.363833852165214e-06</v>
+      </c>
+      <c r="S28">
+        <v>0.800875815004745</v>
+      </c>
+      <c r="T28">
+        <v>0.003312950363056899</v>
+      </c>
+      <c r="U28">
+        <v>0.7728532595654056</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>7.579539320623496e-07</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
